--- a/_site/posts/2021-07-14-assignment/MC2/Card.xlsx
+++ b/_site/posts/2021-07-14-assignment/MC2/Card.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24321"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BTimes1\Desktop\Visual Analytics\Youz2021\DataViz_blog\_posts\2021-07-14-assignment\MC2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B191EF58-42C7-477F-9035-72DD104D6C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_839387533D2AF071AD7E40040337BDB82C73F02E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECCB090E-0A4A-474B-B4B1-20ECFF0B56CF}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="1300" windowWidth="13910" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,18 +550,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -588,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -609,8 +604,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -621,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -632,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -643,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -654,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -668,7 +666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -682,7 +680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -693,7 +691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -707,7 +705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -721,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -732,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -743,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -754,7 +752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -765,7 +763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -776,7 +774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -786,8 +784,11 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -797,8 +798,11 @@
       <c r="C20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -812,7 +816,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -823,7 +827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -834,7 +838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -844,8 +848,11 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -856,7 +863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -867,7 +874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -878,7 +885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -889,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -900,7 +907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -911,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -922,7 +929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -936,7 +943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -947,7 +954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -958,7 +965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -969,7 +976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -979,8 +986,11 @@
       <c r="C36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1005,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1019,7 +1029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1041,7 +1051,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1091,7 +1101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1141,7 +1151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1152,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1162,8 +1172,11 @@
       <c r="C51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1195,8 +1208,11 @@
       <c r="C54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="C55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1221,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1247,15 +1266,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010022D832E29ACDD44B945F139558FD886C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3403c2368ceb4bd4673136dc33de16b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e1695bdf-3005-4212-a2bd-9e36055ce3ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="760ccac9dda67fdfefdd7fc5b4d5935c" ns2:_="">
     <xsd:import namespace="e1695bdf-3005-4212-a2bd-9e36055ce3ec"/>
@@ -1387,37 +1397,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA6B9DEA-F67D-4DF2-BB91-490DDF7A1CDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA6B9DEA-F67D-4DF2-BB91-490DDF7A1CDE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6573BA92-0133-4FF6-97BA-EC459B239C7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{007A7F43-8B9C-4609-89E1-AF0B94E4FE19}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{007A7F43-8B9C-4609-89E1-AF0B94E4FE19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e1695bdf-3005-4212-a2bd-9e36055ce3ec"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6573BA92-0133-4FF6-97BA-EC459B239C7E}"/>
 </file>
--- a/_site/posts/2021-07-14-assignment/MC2/Card.xlsx
+++ b/_site/posts/2021-07-14-assignment/MC2/Card.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_839387533D2AF071AD7E40040337BDB82C73F02E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECCB090E-0A4A-474B-B4B1-20ECFF0B56CF}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BTimes1\Desktop\Visual Analytics\Youz2021\DataViz_blog\_posts\2021-07-14-assignment\MC2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09685314-71E6-41F2-8CA0-E1080B01904E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$57</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>last4ccnum</t>
   </si>
@@ -197,13 +205,16 @@
   </si>
   <si>
     <t>L9633</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +222,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,8 +269,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,710 +606,1039 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1286</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="4">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>1286</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1310</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1321</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1415</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1874</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1877</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2142</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2276</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2418</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" s="1">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>2463</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="5">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5">
+        <v>35</v>
+      </c>
+      <c r="G12" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2540</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>2681</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>3484</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>3492</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>3506</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3547</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>29</v>
+      </c>
+      <c r="G18" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>3853</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19" s="1">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>4434</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>4530</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="G21" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>4795</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1">
+        <v>34</v>
+      </c>
+      <c r="G22" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>4948</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23" s="1">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>5010</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1">
+        <v>31</v>
+      </c>
+      <c r="G24" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>5368</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25" s="1">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>5407</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>5921</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>6691</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>6816</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="G29" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>6895</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1">
+        <v>19</v>
+      </c>
+      <c r="F30" s="1">
+        <v>19</v>
+      </c>
+      <c r="G30" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>6899</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>6901</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+      <c r="G32" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>7108</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1">
+        <v>12</v>
+      </c>
+      <c r="G33" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>7117</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34" s="1">
+        <v>23</v>
+      </c>
+      <c r="G34" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>7253</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="1">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>7354</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="1">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1">
+        <v>16</v>
+      </c>
+      <c r="G36" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>7384</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="1">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1">
+        <v>17</v>
+      </c>
+      <c r="G37" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>7688</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>7792</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39" s="1">
+        <v>12</v>
+      </c>
+      <c r="G39" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>7819</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="1">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>7889</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>8129</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42" s="1">
+        <v>18</v>
+      </c>
+      <c r="G42" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>8156</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D43">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="5">
+        <v>32</v>
+      </c>
+      <c r="E43" s="5">
+        <v>32</v>
+      </c>
+      <c r="F43" s="5">
+        <v>32</v>
+      </c>
+      <c r="G43" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>8202</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>8332</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10</v>
+      </c>
+      <c r="G45" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>8411</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>8642</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="G47" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>9152</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>9220</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="G49" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>9241</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <v>28</v>
+      </c>
+      <c r="G50" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>9405</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="1">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1">
+        <v>24</v>
+      </c>
+      <c r="G51" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>9551</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>9614</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>9617</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="1">
+        <v>18</v>
+      </c>
+      <c r="F54" s="1">
+        <v>14</v>
+      </c>
+      <c r="G54" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>9635</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>9683</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="1">
+        <v>33</v>
+      </c>
+      <c r="F56" s="1">
+        <v>33</v>
+      </c>
+      <c r="G56" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>9735</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D1048576">
     <sortCondition ref="B2:B1048576"/>
   </sortState>
@@ -1260,9 +1647,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1398,22 +1788,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA6B9DEA-F67D-4DF2-BB91-490DDF7A1CDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6573BA92-0133-4FF6-97BA-EC459B239C7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{007A7F43-8B9C-4609-89E1-AF0B94E4FE19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{007A7F43-8B9C-4609-89E1-AF0B94E4FE19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e1695bdf-3005-4212-a2bd-9e36055ce3ec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6573BA92-0133-4FF6-97BA-EC459B239C7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA6B9DEA-F67D-4DF2-BB91-490DDF7A1CDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>